--- a/outputs/SORs/SOR Testing_Corp Sourcing.xlsx
+++ b/outputs/SORs/SOR Testing_Corp Sourcing.xlsx
@@ -10,8 +10,8 @@
     <sheet name="Baja California Mexico" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Betzdorf Germany" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Changzhou Pmc China" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Florence Kentucky" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Fort Wayne Indiana" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Chino California" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Florence Kentucky" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Hyderabad India" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Hyderabad Pmc India" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Juarez Casa SS" sheetId="9" state="visible" r:id="rId9"/>
@@ -23,8 +23,8 @@
     <sheet name="Shanghai China" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="Shanghai Pmc China" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="St Barthelemy D'Anjou France" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Guangdong China" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Chino California" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Fort Wayne Indiana" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Guangdong China" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
 </workbook>
 </file>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -131,13 +131,16 @@
     <t xml:space="preserve">Changzhou Pmc China</t>
   </si>
   <si>
+    <t xml:space="preserve">Chino California</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturing Voluntary Turnover</t>
+  </si>
+  <si>
     <t xml:space="preserve">Florence Kentucky</t>
   </si>
   <si>
     <t xml:space="preserve">Internal Fill Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fort Wayne Indiana</t>
   </si>
   <si>
     <t xml:space="preserve">Hyderabad India</t>
@@ -164,9 +167,6 @@
     <t xml:space="preserve">Rosemont Illinois</t>
   </si>
   <si>
-    <t xml:space="preserve">Manufacturing Voluntary Turnover</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shanghai China</t>
   </si>
   <si>
@@ -176,10 +176,10 @@
     <t xml:space="preserve">St Barthelemy D'Anjou France</t>
   </si>
   <si>
-    <t xml:space="preserve">Guangdong China</t>
+    <t xml:space="preserve">Fort Wayne Indiana</t>
   </si>
   <si>
-    <t xml:space="preserve">Chino California</t>
+    <t xml:space="preserve">Guangdong China</t>
   </si>
 </sst>
 </file>
@@ -932,7 +932,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -1003,7 +1003,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -1074,7 +1074,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -1230,7 +1230,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -1301,7 +1301,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -1372,7 +1372,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -1528,7 +1528,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S2" s="12" t="n">
-        <v>0.1111</v>
+        <v>0.125</v>
       </c>
       <c r="T2" s="12" t="n">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="V2" s="12" t="n">
-        <v>0.1111</v>
+        <v>0.125</v>
       </c>
       <c r="W2" s="12" t="n">
-        <v>0.1042</v>
+        <v>0.1163</v>
       </c>
     </row>
     <row r="3">
@@ -1599,7 +1599,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -1647,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="12" t="n">
-        <v>0.09999</v>
+        <v>0.1125</v>
       </c>
       <c r="T3" s="12" t="n">
         <v>0</v>
@@ -1656,10 +1656,10 @@
         <v>0</v>
       </c>
       <c r="V3" s="12" t="n">
-        <v>0.09999</v>
+        <v>0.1125</v>
       </c>
       <c r="W3" s="12" t="n">
-        <v>0.09378</v>
+        <v>0.10467</v>
       </c>
     </row>
     <row r="4">
@@ -1670,7 +1670,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -1741,10 +1741,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" s="12" t="n">
         <v>1</v>
@@ -1784,10 +1784,10 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" s="12" t="n">
         <v>1</v>
@@ -1855,10 +1855,10 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" s="12" t="n">
         <v>1</v>
@@ -2005,7 +2005,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -2076,7 +2076,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -2147,7 +2147,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -2303,7 +2303,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -2374,7 +2374,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -2445,7 +2445,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -2516,10 +2516,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" t="s">
@@ -2567,10 +2567,10 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" t="s">
@@ -2636,13 +2636,13 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E7" s="14" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -2691,13 +2691,13 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -2746,13 +2746,13 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E9" s="14" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -3118,7 +3118,7 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" t="s">
@@ -3163,7 +3163,7 @@
         <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" t="s">
@@ -3967,6 +3967,71 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" s="18" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -4063,11 +4128,13 @@
         <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="19"/>
+        <v>26</v>
+      </c>
+      <c r="E2" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G2" s="19" t="n">
         <v>0</v>
@@ -4106,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="S2" s="19" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T2" s="19" t="n">
         <v>0</v>
@@ -4115,79 +4182,10 @@
         <v>0</v>
       </c>
       <c r="V2" s="19" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W2" s="19" t="n">
-        <v>0.3125</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="19"/>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="19" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="T3" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="19" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="W3" s="19" t="n">
-        <v>0.28125</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5231,13 +5229,13 @@
         <v>0</v>
       </c>
       <c r="U2" s="5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V2" s="5" t="n">
-        <v>0.3704</v>
+        <v>0</v>
       </c>
       <c r="W2" s="5" t="n">
-        <v>0.3448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -5302,13 +5300,13 @@
         <v>0</v>
       </c>
       <c r="U3" s="5" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="V3" s="5" t="n">
-        <v>0.33336</v>
+        <v>0</v>
       </c>
       <c r="W3" s="5" t="n">
-        <v>0.31032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -5322,13 +5320,13 @@
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0</v>
@@ -5367,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T4" s="5" t="n">
         <v>0</v>
@@ -5376,10 +5374,10 @@
         <v>0</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W4" s="5" t="n">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="5">
@@ -5395,101 +5393,62 @@
       <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="N5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="T5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5" t="n">
+        <v>0.45</v>
+      </c>
       <c r="W5" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="5" t="n">
-        <v>0.5</v>
+        <v>0.28125</v>
       </c>
     </row>
   </sheetData>
@@ -5639,13 +5598,13 @@
         <v>0</v>
       </c>
       <c r="U2" s="6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V2" s="6" t="n">
-        <v>0</v>
+        <v>0.3704</v>
       </c>
       <c r="W2" s="6" t="n">
-        <v>0</v>
+        <v>0.3448</v>
       </c>
     </row>
     <row r="3">
@@ -5710,13 +5669,13 @@
         <v>0</v>
       </c>
       <c r="U3" s="6" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="V3" s="6" t="n">
-        <v>0</v>
+        <v>0.33336</v>
       </c>
       <c r="W3" s="6" t="n">
-        <v>0</v>
+        <v>0.31032</v>
       </c>
     </row>
     <row r="4">
@@ -5801,58 +5760,103 @@
         <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>1</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E5" s="6"/>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
       <c r="N5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="O5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
       <c r="W5" s="6" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="6" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -5948,7 +5952,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -6019,7 +6023,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -6090,7 +6094,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -6161,10 +6165,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
         <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" t="s">
@@ -6202,10 +6206,10 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
         <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" t="s">
@@ -6356,7 +6360,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -6427,7 +6431,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -6498,7 +6502,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -6654,7 +6658,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -6725,7 +6729,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -6796,7 +6800,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>

--- a/outputs/SORs/SOR Testing_Corp Sourcing.xlsx
+++ b/outputs/SORs/SOR Testing_Corp Sourcing.xlsx
@@ -1875,9 +1875,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="12"/>
-      <c r="L7" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" s="12"/>
       <c r="M7" s="12" t="n">
         <v>1</v>
       </c>
@@ -1910,6 +1908,67 @@
       </c>
       <c r="W7" s="12" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="12" t="n">
+        <v>0.0776</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="12" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2642,7 +2701,7 @@
         <v>34</v>
       </c>
       <c r="E7" s="14" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -2697,7 +2756,7 @@
         <v>34</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -2752,7 +2811,7 @@
         <v>34</v>
       </c>
       <c r="E9" s="14" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -3774,9 +3833,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="17"/>
-      <c r="L4" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="L4" s="17"/>
       <c r="M4" s="17" t="n">
         <v>0</v>
       </c>
@@ -3995,9 +4052,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="18"/>
-      <c r="L3" s="18" t="n">
-        <v>1</v>
-      </c>
+      <c r="L3" s="18"/>
       <c r="M3" s="18" t="n">
         <v>1</v>
       </c>
@@ -5323,7 +5378,7 @@
         <v>34</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -5394,7 +5449,7 @@
         <v>34</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>

--- a/outputs/SORs/SOR Testing_Corp Sourcing.xlsx
+++ b/outputs/SORs/SOR Testing_Corp Sourcing.xlsx
@@ -1534,7 +1534,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="12" t="n">
-        <v>0</v>
+        <v>0.2381</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1605,7 +1605,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="12" t="n">
-        <v>0</v>
+        <v>0.2381</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1676,7 +1676,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="12" t="n">
-        <v>0</v>
+        <v>0.2381</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1700,37 +1700,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="12" t="n">
-        <v>0</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="N4" s="12" t="n">
-        <v>0</v>
+        <v>0.14285</v>
       </c>
       <c r="O4" s="12" t="n">
-        <v>0</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="P4" s="12" t="n">
-        <v>0</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="Q4" s="12" t="n">
-        <v>0</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="R4" s="12" t="n">
-        <v>0</v>
+        <v>0.14285</v>
       </c>
       <c r="S4" s="12" t="n">
-        <v>0</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="T4" s="12" t="n">
-        <v>0</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="U4" s="12" t="n">
-        <v>0</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="V4" s="12" t="n">
-        <v>0</v>
+        <v>0.14285</v>
       </c>
       <c r="W4" s="12" t="n">
-        <v>0</v>
+        <v>0.5714</v>
       </c>
     </row>
     <row r="5">
@@ -1924,7 +1924,7 @@
         <v>34</v>
       </c>
       <c r="E8" s="12" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -2368,7 +2368,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="14" t="n">
-        <v>0</v>
+        <v>0.0568</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2439,7 +2439,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="14" t="n">
-        <v>0</v>
+        <v>0.0568</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2510,7 +2510,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="14" t="n">
-        <v>0</v>
+        <v>0.0568</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2534,37 +2534,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="14" t="n">
-        <v>0</v>
+        <v>0.0113583333333333</v>
       </c>
       <c r="N4" s="14" t="n">
-        <v>0</v>
+        <v>0.034075</v>
       </c>
       <c r="O4" s="14" t="n">
-        <v>0</v>
+        <v>0.0113583333333333</v>
       </c>
       <c r="P4" s="14" t="n">
-        <v>0</v>
+        <v>0.0113583333333333</v>
       </c>
       <c r="Q4" s="14" t="n">
-        <v>0</v>
+        <v>0.0113583333333333</v>
       </c>
       <c r="R4" s="14" t="n">
-        <v>0</v>
+        <v>0.034075</v>
       </c>
       <c r="S4" s="14" t="n">
-        <v>0</v>
+        <v>0.0113583333333333</v>
       </c>
       <c r="T4" s="14" t="n">
-        <v>0</v>
+        <v>0.0113583333333333</v>
       </c>
       <c r="U4" s="14" t="n">
-        <v>0</v>
+        <v>0.0113583333333333</v>
       </c>
       <c r="V4" s="14" t="n">
-        <v>0</v>
+        <v>0.034075</v>
       </c>
       <c r="W4" s="14" t="n">
-        <v>0</v>
+        <v>0.1363</v>
       </c>
     </row>
     <row r="5">
@@ -2701,7 +2701,7 @@
         <v>34</v>
       </c>
       <c r="E7" s="14" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -2756,7 +2756,7 @@
         <v>34</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -2811,7 +2811,7 @@
         <v>34</v>
       </c>
       <c r="E9" s="14" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -2967,7 +2967,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0</v>
+        <v>0.2632</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3038,7 +3038,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0</v>
+        <v>0.2632</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3109,7 +3109,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0</v>
+        <v>0.2632</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3133,37 +3133,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0</v>
+        <v>0.0526416666666667</v>
       </c>
       <c r="N4" s="15" t="n">
-        <v>0</v>
+        <v>0.157925</v>
       </c>
       <c r="O4" s="15" t="n">
-        <v>0</v>
+        <v>0.0526416666666667</v>
       </c>
       <c r="P4" s="15" t="n">
-        <v>0</v>
+        <v>0.0526416666666667</v>
       </c>
       <c r="Q4" s="15" t="n">
-        <v>0</v>
+        <v>0.0526416666666667</v>
       </c>
       <c r="R4" s="15" t="n">
-        <v>0</v>
+        <v>0.157925</v>
       </c>
       <c r="S4" s="15" t="n">
-        <v>0</v>
+        <v>0.0526416666666667</v>
       </c>
       <c r="T4" s="15" t="n">
-        <v>0</v>
+        <v>0.0526416666666667</v>
       </c>
       <c r="U4" s="15" t="n">
-        <v>0</v>
+        <v>0.0526416666666667</v>
       </c>
       <c r="V4" s="15" t="n">
-        <v>0</v>
+        <v>0.157925</v>
       </c>
       <c r="W4" s="15" t="n">
-        <v>0</v>
+        <v>0.6317</v>
       </c>
     </row>
     <row r="5">
@@ -4640,7 +4640,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0</v>
+        <v>0.1136</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4711,7 +4711,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0</v>
+        <v>0.1136</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4782,7 +4782,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0</v>
+        <v>0.1136</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4806,37 +4806,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0</v>
+        <v>0.0227166666666667</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>0</v>
+        <v>0.06815</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0</v>
+        <v>0.0227166666666667</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0</v>
+        <v>0.0227166666666667</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0</v>
+        <v>0.0227166666666667</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0</v>
+        <v>0.06815</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0</v>
+        <v>0.0227166666666667</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0</v>
+        <v>0.0227166666666667</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0</v>
+        <v>0.0227166666666667</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0</v>
+        <v>0.06815</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>0</v>
+        <v>0.2726</v>
       </c>
     </row>
   </sheetData>
@@ -5235,9 +5235,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="5"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -5306,9 +5304,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="5"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -5377,9 +5373,7 @@
       <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="5" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E4" s="5"/>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -5448,9 +5442,7 @@
       <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="5" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="5"/>
       <c r="F5" t="s">
         <v>28</v>
       </c>

--- a/outputs/SORs/SOR Testing_Corp Sourcing.xlsx
+++ b/outputs/SORs/SOR Testing_Corp Sourcing.xlsx
@@ -128,13 +128,13 @@
     <t xml:space="preserve">Betzdorf Germany</t>
   </si>
   <si>
+    <t xml:space="preserve">Manufacturing Voluntary Turnover</t>
+  </si>
+  <si>
     <t xml:space="preserve">Changzhou Pmc China</t>
   </si>
   <si>
     <t xml:space="preserve">Chino California</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturing Voluntary Turnover</t>
   </si>
   <si>
     <t xml:space="preserve">Florence Kentucky</t>
@@ -1534,7 +1534,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="12" t="n">
-        <v>0.2381</v>
+        <v>0.2353</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1605,7 +1605,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="12" t="n">
-        <v>0.2381</v>
+        <v>0.2353</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1676,7 +1676,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="12" t="n">
-        <v>0.2381</v>
+        <v>0.2353</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1700,37 +1700,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="12" t="n">
-        <v>0.0476166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="12" t="n">
-        <v>0.14285</v>
+        <v>0</v>
       </c>
       <c r="O4" s="12" t="n">
-        <v>0.0476166666666667</v>
+        <v>0.0392166666666667</v>
       </c>
       <c r="P4" s="12" t="n">
-        <v>0.0476166666666667</v>
+        <v>0.0392166666666667</v>
       </c>
       <c r="Q4" s="12" t="n">
-        <v>0.0476166666666667</v>
+        <v>0.0392166666666667</v>
       </c>
       <c r="R4" s="12" t="n">
-        <v>0.14285</v>
+        <v>0.11765</v>
       </c>
       <c r="S4" s="12" t="n">
-        <v>0.0476166666666667</v>
+        <v>0.0392166666666667</v>
       </c>
       <c r="T4" s="12" t="n">
-        <v>0.0476166666666667</v>
+        <v>0.0392166666666667</v>
       </c>
       <c r="U4" s="12" t="n">
-        <v>0.0476166666666667</v>
+        <v>0.0392166666666667</v>
       </c>
       <c r="V4" s="12" t="n">
-        <v>0.14285</v>
+        <v>0.11765</v>
       </c>
       <c r="W4" s="12" t="n">
-        <v>0.5714</v>
+        <v>0.4706</v>
       </c>
     </row>
     <row r="5">
@@ -1876,12 +1876,8 @@
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
       <c r="O7" s="12" t="n">
         <v>1</v>
       </c>
@@ -1921,7 +1917,7 @@
         <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" s="12" t="n">
         <v>0</v>
@@ -2368,7 +2364,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="14" t="n">
-        <v>0.0568</v>
+        <v>0.0549</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2439,7 +2435,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="14" t="n">
-        <v>0.0568</v>
+        <v>0.0549</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2510,7 +2506,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="14" t="n">
-        <v>0.0568</v>
+        <v>0.0549</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2534,37 +2530,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="14" t="n">
-        <v>0.0113583333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="14" t="n">
-        <v>0.034075</v>
+        <v>0</v>
       </c>
       <c r="O4" s="14" t="n">
-        <v>0.0113583333333333</v>
+        <v>0.00915</v>
       </c>
       <c r="P4" s="14" t="n">
-        <v>0.0113583333333333</v>
+        <v>0.00915</v>
       </c>
       <c r="Q4" s="14" t="n">
-        <v>0.0113583333333333</v>
+        <v>0.00915</v>
       </c>
       <c r="R4" s="14" t="n">
-        <v>0.034075</v>
+        <v>0.02745</v>
       </c>
       <c r="S4" s="14" t="n">
-        <v>0.0113583333333333</v>
+        <v>0.00915</v>
       </c>
       <c r="T4" s="14" t="n">
-        <v>0.0113583333333333</v>
+        <v>0.00915</v>
       </c>
       <c r="U4" s="14" t="n">
-        <v>0.0113583333333333</v>
+        <v>0.00915</v>
       </c>
       <c r="V4" s="14" t="n">
-        <v>0.034075</v>
+        <v>0.02745</v>
       </c>
       <c r="W4" s="14" t="n">
-        <v>0.1363</v>
+        <v>0.1098</v>
       </c>
     </row>
     <row r="5">
@@ -2698,7 +2694,7 @@
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" s="14" t="n">
         <v>0</v>
@@ -2753,7 +2749,7 @@
         <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" s="14" t="n">
         <v>0</v>
@@ -2808,7 +2804,7 @@
         <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" s="14" t="n">
         <v>0</v>
@@ -3133,37 +3129,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.0526416666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="15" t="n">
-        <v>0.157925</v>
+        <v>0</v>
       </c>
       <c r="O4" s="15" t="n">
-        <v>0.0526416666666667</v>
+        <v>0.0438666666666667</v>
       </c>
       <c r="P4" s="15" t="n">
-        <v>0.0526416666666667</v>
+        <v>0.0438666666666667</v>
       </c>
       <c r="Q4" s="15" t="n">
-        <v>0.0526416666666667</v>
+        <v>0.0438666666666667</v>
       </c>
       <c r="R4" s="15" t="n">
-        <v>0.157925</v>
+        <v>0.1316</v>
       </c>
       <c r="S4" s="15" t="n">
-        <v>0.0526416666666667</v>
+        <v>0.0438666666666667</v>
       </c>
       <c r="T4" s="15" t="n">
-        <v>0.0526416666666667</v>
+        <v>0.0438666666666667</v>
       </c>
       <c r="U4" s="15" t="n">
-        <v>0.0526416666666667</v>
+        <v>0.0438666666666667</v>
       </c>
       <c r="V4" s="15" t="n">
-        <v>0.157925</v>
+        <v>0.1316</v>
       </c>
       <c r="W4" s="15" t="n">
-        <v>0.6317</v>
+        <v>0.5264</v>
       </c>
     </row>
     <row r="5">
@@ -3834,12 +3830,8 @@
       </c>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
-      <c r="M4" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
       <c r="O4" s="17" t="n">
         <v>0</v>
       </c>
@@ -4053,12 +4045,8 @@
       </c>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
-      <c r="M3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="18" t="n">
-        <v>1</v>
-      </c>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
       <c r="O3" s="18" t="n">
         <v>1</v>
       </c>
@@ -4640,7 +4628,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.1136</v>
+        <v>0.1149</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4711,7 +4699,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.1136</v>
+        <v>0.1149</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4782,7 +4770,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.1136</v>
+        <v>0.1149</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4806,37 +4794,96 @@
         <v>0</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0.0227166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>0.06815</v>
+        <v>0.1205</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0.0227166666666667</v>
+        <v>0.01915</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0.0227166666666667</v>
+        <v>0.01915</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.0227166666666667</v>
+        <v>0.01915</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0.06815</v>
+        <v>0.05745</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0.0227166666666667</v>
+        <v>0.01915</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0.0227166666666667</v>
+        <v>0.01915</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0.0227166666666667</v>
+        <v>0.01915</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0.06815</v>
+        <v>0.05745</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>0.2726</v>
+        <v>0.2298</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4932,7 +4979,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -5003,7 +5050,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -5074,7 +5121,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -5230,7 +5277,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -5299,7 +5346,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -5368,10 +5415,10 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" t="s">
@@ -5437,10 +5484,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" t="s">
@@ -6412,9 +6459,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="8"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -6483,9 +6528,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="8"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -6538,77 +6581,6 @@
         <v>0</v>
       </c>
       <c r="W3" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="8" t="n">
         <v>0</v>
       </c>
     </row>

--- a/outputs/SORs/SOR Testing_Corp Sourcing.xlsx
+++ b/outputs/SORs/SOR Testing_Corp Sourcing.xlsx
@@ -1534,7 +1534,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="12" t="n">
-        <v>0.2353</v>
+        <v>0.2326</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1605,7 +1605,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="12" t="n">
-        <v>0.2353</v>
+        <v>0.2326</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1676,7 +1676,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="12" t="n">
-        <v>0.2353</v>
+        <v>0.2326</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1706,31 +1706,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="12" t="n">
-        <v>0.0392166666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="12" t="n">
-        <v>0.0392166666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="12" t="n">
-        <v>0.0392166666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="12" t="n">
-        <v>0.11765</v>
+        <v>0</v>
       </c>
       <c r="S4" s="12" t="n">
-        <v>0.0392166666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="12" t="n">
-        <v>0.0392166666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="12" t="n">
-        <v>0.0392166666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="12" t="n">
-        <v>0.11765</v>
+        <v>0</v>
       </c>
       <c r="W4" s="12" t="n">
-        <v>0.4706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1878,9 +1878,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
-      <c r="O7" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="O7" s="12"/>
       <c r="P7" s="12" t="n">
         <v>1</v>
       </c>
@@ -2364,7 +2362,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="14" t="n">
-        <v>0.0549</v>
+        <v>0.0535</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2435,7 +2433,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="14" t="n">
-        <v>0.0549</v>
+        <v>0.0535</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2506,7 +2504,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="14" t="n">
-        <v>0.0549</v>
+        <v>0.0535</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2536,31 +2534,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="14" t="n">
-        <v>0.00915</v>
+        <v>0</v>
       </c>
       <c r="P4" s="14" t="n">
-        <v>0.00915</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="14" t="n">
-        <v>0.00915</v>
+        <v>0</v>
       </c>
       <c r="R4" s="14" t="n">
-        <v>0.02745</v>
+        <v>0</v>
       </c>
       <c r="S4" s="14" t="n">
-        <v>0.00915</v>
+        <v>0</v>
       </c>
       <c r="T4" s="14" t="n">
-        <v>0.00915</v>
+        <v>0</v>
       </c>
       <c r="U4" s="14" t="n">
-        <v>0.00915</v>
+        <v>0</v>
       </c>
       <c r="V4" s="14" t="n">
-        <v>0.02745</v>
+        <v>0</v>
       </c>
       <c r="W4" s="14" t="n">
-        <v>0.1098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2963,7 +2961,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.2632</v>
+        <v>0.2564</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3034,7 +3032,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.2632</v>
+        <v>0.2564</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3105,7 +3103,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.2632</v>
+        <v>0.2564</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3135,31 +3133,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="15" t="n">
-        <v>0.0438666666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="15" t="n">
-        <v>0.0438666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="15" t="n">
-        <v>0.0438666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="15" t="n">
-        <v>0.1316</v>
+        <v>0</v>
       </c>
       <c r="S4" s="15" t="n">
-        <v>0.0438666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="15" t="n">
-        <v>0.0438666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="15" t="n">
-        <v>0.0438666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="15" t="n">
-        <v>0.1316</v>
+        <v>0</v>
       </c>
       <c r="W4" s="15" t="n">
-        <v>0.5264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3832,9 +3830,7 @@
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
-      <c r="O4" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="O4" s="17"/>
       <c r="P4" s="17" t="n">
         <v>0</v>
       </c>
@@ -4047,9 +4043,7 @@
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
-      <c r="O3" s="18" t="n">
-        <v>1</v>
-      </c>
+      <c r="O3" s="18"/>
       <c r="P3" s="18" t="n">
         <v>1</v>
       </c>
@@ -4628,7 +4622,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.1149</v>
+        <v>0.1316</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4699,7 +4693,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.1149</v>
+        <v>0.1316</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4770,7 +4764,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.1149</v>
+        <v>0.1316</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4788,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>0.1111</v>
+        <v>0.125</v>
       </c>
       <c r="L4" s="3" t="n">
         <v>0</v>
@@ -4797,34 +4791,34 @@
         <v>0</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>0.1205</v>
+        <v>0.137</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0.01915</v>
+        <v>0</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0.01915</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.01915</v>
+        <v>0</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0.05745</v>
+        <v>0</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0.01915</v>
+        <v>0</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0.01915</v>
+        <v>0</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0.01915</v>
+        <v>0</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0.05745</v>
+        <v>0</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>0.2298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -6052,7 +6046,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0</v>
+        <v>0.2151</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6123,7 +6117,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0</v>
+        <v>0.2151</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6194,7 +6188,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0</v>
+        <v>0.2151</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6224,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0</v>
+        <v>0.2222</v>
       </c>
       <c r="P4" s="7" t="n">
         <v>0</v>
